--- a/design/documents/spreadsheets/newspapers.xlsx
+++ b/design/documents/spreadsheets/newspapers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>London Region : Hillingdon London borough</t>
   </si>
   <si>
-    <t>North East Region : Middlesbrough UA</t>
-  </si>
-  <si>
     <t>Northern Ireland Region : Antrim NI District</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Hillingdon Times</t>
   </si>
   <si>
-    <t>Found: http://www.gazettelive.co.uk/whats-on/arts-culture-news/haunted-teesside-13-spooky-stories-7257300</t>
-  </si>
-  <si>
     <t>http://www.antrimguardian.co.uk/</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>http://www.alloaadvertiser.com/</t>
   </si>
   <si>
-    <t>http://www.wee-county-news.co.uk/</t>
-  </si>
-  <si>
     <t>http://www.thecourier.co.uk/</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>http://www.rugbyadvertiser.co.uk/</t>
   </si>
   <si>
-    <t>http://www.stratford-herald.co.uk/</t>
-  </si>
-  <si>
     <t>http://www.warwickcourier.co.uk/</t>
   </si>
   <si>
@@ -361,6 +349,189 @@
   </si>
   <si>
     <t>https://twitter.com/ThurrockGazette</t>
+  </si>
+  <si>
+    <t>editorial@gosportglobe.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/dailyecho</t>
+  </si>
+  <si>
+    <t>https://twitter.com/lancstelegraph</t>
+  </si>
+  <si>
+    <t>https://twitter.com/GetWestLondon</t>
+  </si>
+  <si>
+    <t>https://twitter.com/local_london</t>
+  </si>
+  <si>
+    <t>rparsons@newsassociates.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ulsternet</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Antrim_Times</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AntrimPost</t>
+  </si>
+  <si>
+    <t>editor@antrimreview.net</t>
+  </si>
+  <si>
+    <t>news@ballymoneytimes.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Coleraine_Times</t>
+  </si>
+  <si>
+    <t>communityservices@castlereagh.gov.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/portadowntimes1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DownRec</t>
+  </si>
+  <si>
+    <t>editor@fermanaghherald.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Ferm_Herald</t>
+  </si>
+  <si>
+    <t>https://twitter.com/impartialrep</t>
+  </si>
+  <si>
+    <t>https://twitter.com/L_Sentinel</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LisburnStar</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MidUMail</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Larne_Times</t>
+  </si>
+  <si>
+    <t>https://twitter.com/newryreporter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/newrytimes</t>
+  </si>
+  <si>
+    <t>editor@newrytimes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news@mourneobserver.com  </t>
+  </si>
+  <si>
+    <t>https://twitter.com/MourneObserver</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nabbeytimes</t>
+  </si>
+  <si>
+    <t>news@newtownabbeytimes.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/codownspectator</t>
+  </si>
+  <si>
+    <t>news@spectatornewspapers.co.uk</t>
+  </si>
+  <si>
+    <t>contact@northwestnewsgroup.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Arbroath_Herald</t>
+  </si>
+  <si>
+    <t>https://twitter.com/alloatiser</t>
+  </si>
+  <si>
+    <t>editor@thecourier.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/thecourieruk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Evening_Tele</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Sunday_Post</t>
+  </si>
+  <si>
+    <t>kirkyherald@jnscotland.co.uk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Kirky_Herald</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MBHerald1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/barrheadnews</t>
+  </si>
+  <si>
+    <t>https://twitter.com/greenocktele</t>
+  </si>
+  <si>
+    <t>https://twitter.com/the_orcadian</t>
+  </si>
+  <si>
+    <t>https://twitter.com/clydebankpost</t>
+  </si>
+  <si>
+    <t>https://twitter.com/dumbartonreport</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Daily_Record</t>
+  </si>
+  <si>
+    <t>https://twitter.com/JournoandGaz</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BurtonMailNews</t>
+  </si>
+  <si>
+    <t>https://twitter.com/UttoxeterNews</t>
+  </si>
+  <si>
+    <t>https://twitter.com/getreading</t>
+  </si>
+  <si>
+    <t>https://twitter.com/tivyside</t>
+  </si>
+  <si>
+    <t>https://twitter.com/harbmail</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Kenilworth_News</t>
+  </si>
+  <si>
+    <t>https://twitter.com/leamcourier</t>
+  </si>
+  <si>
+    <t>https://twitter.com/rugbyadv</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Warwick_Courier</t>
+  </si>
+  <si>
+    <t>https://twitter.com/intent/follow?original_referer=http%3A%2F%2Fwww.gosportglobe.uk%2F&amp;screen_name=GosportGlobe&amp;tw_p=followbutton</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BMoney_Times</t>
+  </si>
+  <si>
+    <t>UlsterNet</t>
+  </si>
+  <si>
+    <t>Daily Record</t>
   </si>
 </sst>
 </file>
@@ -719,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -739,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -751,541 +922,862 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
       <c r="B16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
       <c r="B29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D65" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="B64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F68">
+    <sortCondition ref="F1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6" display="http://www.lancashiretelegraph.co.uk/"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B9" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B24" r:id="rId13"/>
-    <hyperlink ref="B28" r:id="rId14"/>
-    <hyperlink ref="B44" r:id="rId15"/>
-    <hyperlink ref="B51" r:id="rId16"/>
-    <hyperlink ref="B61" r:id="rId17"/>
-    <hyperlink ref="F3" r:id="rId18"/>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B50" r:id="rId2"/>
+    <hyperlink ref="B27" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6" display="http://www.lancashiretelegraph.co.uk/"/>
+    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="B36" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B38" r:id="rId11"/>
+    <hyperlink ref="B22" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId15"/>
+    <hyperlink ref="B6" r:id="rId16"/>
+    <hyperlink ref="B60" r:id="rId17"/>
+    <hyperlink ref="F50" r:id="rId18"/>
+    <hyperlink ref="F14" r:id="rId19"/>
+    <hyperlink ref="F32" r:id="rId20"/>
+    <hyperlink ref="F20" r:id="rId21"/>
+    <hyperlink ref="D62" r:id="rId22"/>
+    <hyperlink ref="D63" r:id="rId23" display="mailto:editor@antrimreview.net"/>
+    <hyperlink ref="D7" r:id="rId24" display="mailto:news@ballymoneytimes.co.uk"/>
+    <hyperlink ref="D64" r:id="rId25" display="mailto:communityservices@castlereagh.gov.uk"/>
+    <hyperlink ref="D18" r:id="rId26"/>
+    <hyperlink ref="D44" r:id="rId27"/>
+    <hyperlink ref="D41" r:id="rId28"/>
+    <hyperlink ref="D42" r:id="rId29" display="mailto:news@newtownabbeytimes.co.uk"/>
+    <hyperlink ref="D10" r:id="rId30" display="mailto:news@spectatornewspapers.co.uk"/>
+    <hyperlink ref="D65" r:id="rId31" display="mailto:contact@northwestnewsgroup.com"/>
+    <hyperlink ref="D49" r:id="rId32" display="mailto:editor@thecourier.co.uk"/>
+    <hyperlink ref="D30" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId34"/>
 </worksheet>
 </file>
 
